--- a/pinout.xlsx
+++ b/pinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kennedy\Desktop\CropTop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB82155-E6EB-4C56-941E-CF8396381F60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CF8FC8-4D3B-4FDC-820B-690758EDA50B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{96B077CE-1DB9-42D8-ABCB-202F61D186A8}"/>
   </bookViews>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73935FFD-BF5E-4BF2-ADB9-AC79772A21EB}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:B67"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pinout.xlsx
+++ b/pinout.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kennedy\Desktop\CropTop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CF8FC8-4D3B-4FDC-820B-690758EDA50B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BA068E-53C7-42FE-8B99-26CC75D7F487}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{96B077CE-1DB9-42D8-ABCB-202F61D186A8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="2" xr2:uid="{96B077CE-1DB9-42D8-ABCB-202F61D186A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Pin Function Selection" sheetId="1" r:id="rId1"/>
     <sheet name="Totals" sheetId="2" r:id="rId2"/>
+    <sheet name="Tasks to Accomplish" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="148">
   <si>
     <t>AERXERR/RG15</t>
   </si>
@@ -361,6 +362,120 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>PMOD_3V3_PWR_FLG</t>
+  </si>
+  <si>
+    <t>PMOD_5V0_PWR_FLG</t>
+  </si>
+  <si>
+    <t>USB_1_PWR_FLG</t>
+  </si>
+  <si>
+    <t>USB_2_PWR_FLG</t>
+  </si>
+  <si>
+    <t>ADI_PWR_FLG</t>
+  </si>
+  <si>
+    <t>ROTARY_PWR_FLG</t>
+  </si>
+  <si>
+    <t>STEPPER_FAULT</t>
+  </si>
+  <si>
+    <t>DC_MOTOR_FAULT</t>
+  </si>
+  <si>
+    <t>SDCARD_PWR_FLG</t>
+  </si>
+  <si>
+    <t>LED_1</t>
+  </si>
+  <si>
+    <t>LED_2</t>
+  </si>
+  <si>
+    <t>LED_3</t>
+  </si>
+  <si>
+    <t>BTN_1</t>
+  </si>
+  <si>
+    <t>BTN_2</t>
+  </si>
+  <si>
+    <t>BTN_3</t>
+  </si>
+  <si>
+    <t>IMU_INT</t>
+  </si>
+  <si>
+    <t>ACCEL_INT1</t>
+  </si>
+  <si>
+    <t>ACCEL_INT2</t>
+  </si>
+  <si>
+    <t>ROTARY_1_A</t>
+  </si>
+  <si>
+    <t>ROTARY_1_B</t>
+  </si>
+  <si>
+    <t>ROTARY_2_A</t>
+  </si>
+  <si>
+    <t>ROTARY_2_B</t>
+  </si>
+  <si>
+    <t>LINEAR_1_ADC</t>
+  </si>
+  <si>
+    <t>CONFIG_ADC</t>
+  </si>
+  <si>
+    <t>LINEAR_2_ADC</t>
+  </si>
+  <si>
+    <t>PMOD_ADC_1</t>
+  </si>
+  <si>
+    <t>PMOD_ADC_2</t>
+  </si>
+  <si>
+    <t>PMOD_ADC_3</t>
+  </si>
+  <si>
+    <t>PMOD_ADC_4</t>
+  </si>
+  <si>
+    <t>Add Piezo Buzzer</t>
+  </si>
+  <si>
+    <t>Finish FT812Q Connection</t>
+  </si>
+  <si>
+    <t>Work on PIC32 Pinout</t>
+  </si>
+  <si>
+    <t>Finish Stepper Motor Chip</t>
+  </si>
+  <si>
+    <t>Testpoints</t>
+  </si>
+  <si>
+    <t>Netnames</t>
+  </si>
+  <si>
+    <t>Labels</t>
+  </si>
+  <si>
+    <t>Calculations</t>
+  </si>
+  <si>
+    <t>Check testpoint are on labeled nets</t>
   </si>
 </sst>
 </file>
@@ -462,7 +577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -522,11 +637,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -562,6 +717,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73935FFD-BF5E-4BF2-ADB9-AC79772A21EB}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,23 +2002,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2D64DB-B2A0-4F60-925D-59136FB2C49D}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" style="35"/>
+    <col min="5" max="5" width="9.140625" style="36"/>
+    <col min="6" max="6" width="14.7109375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="36"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="36"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B1">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>95</v>
       </c>
@@ -1867,7 +2041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>101</v>
       </c>
@@ -1875,7 +2049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>106</v>
       </c>
@@ -1883,7 +2057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>102</v>
       </c>
@@ -1891,7 +2065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>100</v>
       </c>
@@ -1899,7 +2073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>91</v>
       </c>
@@ -1907,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>94</v>
       </c>
@@ -1915,7 +2089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>103</v>
       </c>
@@ -1923,12 +2097,210 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>104</v>
       </c>
       <c r="B10">
         <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="36">
+        <v>2</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="36">
+        <v>12</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12">
+        <v>28</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F17" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F18" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F19" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="J20" s="35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F21" s="35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F22" s="35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F23" s="35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F25" s="35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F26" s="35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F27" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F28" s="35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969C056B-96B6-4D04-9AC4-034ED8AD2AA4}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/pinout.xlsx
+++ b/pinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kennedy\Desktop\CropTop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BA068E-53C7-42FE-8B99-26CC75D7F487}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B26113-E71A-48CD-9B73-BE884CF39BA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="2" xr2:uid="{96B077CE-1DB9-42D8-ABCB-202F61D186A8}"/>
   </bookViews>
@@ -2258,7 +2258,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pinout.xlsx
+++ b/pinout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kennedy\Desktop\CropTop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B26113-E71A-48CD-9B73-BE884CF39BA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87D9F6D-4108-43E2-883C-150ECA6E8275}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="2" xr2:uid="{96B077CE-1DB9-42D8-ABCB-202F61D186A8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="1" xr2:uid="{96B077CE-1DB9-42D8-ABCB-202F61D186A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Pin Function Selection" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="148">
   <si>
     <t>AERXERR/RG15</t>
   </si>
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73935FFD-BF5E-4BF2-ADB9-AC79772A21EB}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,10 +2002,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2D64DB-B2A0-4F60-925D-59136FB2C49D}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2019,7 +2019,7 @@
     <col min="11" max="11" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>92</v>
       </c>
@@ -2033,7 +2033,7 @@
       <c r="J1" s="33"/>
       <c r="K1" s="34"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>95</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>101</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>106</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>102</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>100</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>91</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>94</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>103</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>104</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D12" s="24" t="s">
         <v>106</v>
       </c>
@@ -2130,8 +2130,14 @@
       <c r="K12" s="36">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D13" s="35" t="s">
         <v>116</v>
       </c>
@@ -2145,7 +2151,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D14" s="35" t="s">
         <v>117</v>
       </c>
@@ -2159,7 +2165,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F15" s="35" t="s">
         <v>112</v>
       </c>
@@ -2170,7 +2176,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F16" s="35" t="s">
         <v>113</v>
       </c>
@@ -2257,7 +2263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969C056B-96B6-4D04-9AC4-034ED8AD2AA4}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>

--- a/pinout.xlsx
+++ b/pinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kennedy\Desktop\CropTop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87D9F6D-4108-43E2-883C-150ECA6E8275}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BE28BF-D670-48BF-A7AB-E35B47DBBCF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="1" xr2:uid="{96B077CE-1DB9-42D8-ABCB-202F61D186A8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="185">
   <si>
     <t>AERXERR/RG15</t>
   </si>
@@ -364,33 +364,6 @@
     <t>e</t>
   </si>
   <si>
-    <t>PMOD_3V3_PWR_FLG</t>
-  </si>
-  <si>
-    <t>PMOD_5V0_PWR_FLG</t>
-  </si>
-  <si>
-    <t>USB_1_PWR_FLG</t>
-  </si>
-  <si>
-    <t>USB_2_PWR_FLG</t>
-  </si>
-  <si>
-    <t>ADI_PWR_FLG</t>
-  </si>
-  <si>
-    <t>ROTARY_PWR_FLG</t>
-  </si>
-  <si>
-    <t>STEPPER_FAULT</t>
-  </si>
-  <si>
-    <t>DC_MOTOR_FAULT</t>
-  </si>
-  <si>
-    <t>SDCARD_PWR_FLG</t>
-  </si>
-  <si>
     <t>LED_1</t>
   </si>
   <si>
@@ -409,36 +382,9 @@
     <t>BTN_3</t>
   </si>
   <si>
-    <t>IMU_INT</t>
-  </si>
-  <si>
-    <t>ACCEL_INT1</t>
-  </si>
-  <si>
-    <t>ACCEL_INT2</t>
-  </si>
-  <si>
-    <t>ROTARY_1_A</t>
-  </si>
-  <si>
-    <t>ROTARY_1_B</t>
-  </si>
-  <si>
-    <t>ROTARY_2_A</t>
-  </si>
-  <si>
-    <t>ROTARY_2_B</t>
-  </si>
-  <si>
-    <t>LINEAR_1_ADC</t>
-  </si>
-  <si>
     <t>CONFIG_ADC</t>
   </si>
   <si>
-    <t>LINEAR_2_ADC</t>
-  </si>
-  <si>
     <t>PMOD_ADC_1</t>
   </si>
   <si>
@@ -476,6 +422,171 @@
   </si>
   <si>
     <t>Check testpoint are on labeled nets</t>
+  </si>
+  <si>
+    <t>~GPU_CS</t>
+  </si>
+  <si>
+    <t>GPU_MOSI</t>
+  </si>
+  <si>
+    <t>GPU_MISO</t>
+  </si>
+  <si>
+    <t>GPU_SCLK</t>
+  </si>
+  <si>
+    <t>~GPU_INT</t>
+  </si>
+  <si>
+    <t>~GPU_PD</t>
+  </si>
+  <si>
+    <t>PKT_PGED</t>
+  </si>
+  <si>
+    <t>PKT_PGEC</t>
+  </si>
+  <si>
+    <t>PKT_MCLR</t>
+  </si>
+  <si>
+    <t>~ADI_CS</t>
+  </si>
+  <si>
+    <t>~DC_FAULT</t>
+  </si>
+  <si>
+    <t>~ADI_PWR_GOOD</t>
+  </si>
+  <si>
+    <t>~POTEN_PWR_GOOD</t>
+  </si>
+  <si>
+    <t>~SONIC_PWR_GOOD</t>
+  </si>
+  <si>
+    <t>~PMOD_3V3_PWR_GOOD</t>
+  </si>
+  <si>
+    <t>~PMOD_5V0_PWR_GOOD</t>
+  </si>
+  <si>
+    <t>DC_PWM_1</t>
+  </si>
+  <si>
+    <t>DC_PWM_2</t>
+  </si>
+  <si>
+    <t>POTEN_ADC_2</t>
+  </si>
+  <si>
+    <t>POTEN_ADC_1</t>
+  </si>
+  <si>
+    <t>SONIC_TRIG</t>
+  </si>
+  <si>
+    <t>SONIC_ECHO</t>
+  </si>
+  <si>
+    <t>~SDCARD_PWR_GOOD</t>
+  </si>
+  <si>
+    <t>~STEPPER_FAULT</t>
+  </si>
+  <si>
+    <t>~STEPPER_HOME</t>
+  </si>
+  <si>
+    <t>~STEPPER_ENBL</t>
+  </si>
+  <si>
+    <t>STEPPER_STEP</t>
+  </si>
+  <si>
+    <t>STEPPER_MODE_0</t>
+  </si>
+  <si>
+    <t>STEPPER_MODE_1</t>
+  </si>
+  <si>
+    <t>STEPPER_MODE_2</t>
+  </si>
+  <si>
+    <t>STEPPER_DIR</t>
+  </si>
+  <si>
+    <t>STEPPER_DECAY</t>
+  </si>
+  <si>
+    <t>~STEPPER_SLEEP</t>
+  </si>
+  <si>
+    <t>~STEPPER_RESET</t>
+  </si>
+  <si>
+    <t>ADI_MOSI</t>
+  </si>
+  <si>
+    <t>ADI_MISO</t>
+  </si>
+  <si>
+    <t>ADI_SCLK</t>
+  </si>
+  <si>
+    <t>~SDCARD_CS</t>
+  </si>
+  <si>
+    <t>SDCARD_MOSI</t>
+  </si>
+  <si>
+    <t>SDCARD_MISO</t>
+  </si>
+  <si>
+    <t>SDCARD_SCLK</t>
+  </si>
+  <si>
+    <t>ONBRD_SCL</t>
+  </si>
+  <si>
+    <t>ONBRD_SDA</t>
+  </si>
+  <si>
+    <t>ACCEL_INT_1</t>
+  </si>
+  <si>
+    <t>ACCEL_INT_2</t>
+  </si>
+  <si>
+    <t>PMOD_TX</t>
+  </si>
+  <si>
+    <t>PMOD_RX</t>
+  </si>
+  <si>
+    <t>ENCDR_A</t>
+  </si>
+  <si>
+    <t>ENCDR_B</t>
+  </si>
+  <si>
+    <t>~ENCDR_PWR_GOOD</t>
+  </si>
+  <si>
+    <t>GPS_PPS</t>
+  </si>
+  <si>
+    <t>GPS_RST</t>
+  </si>
+  <si>
+    <t>GPS_EXTINT</t>
+  </si>
+  <si>
+    <t>~USB_PWR_GOOD</t>
+  </si>
+  <si>
+    <t>RG15</t>
   </si>
 </sst>
 </file>
@@ -681,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -721,6 +832,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73935FFD-BF5E-4BF2-ADB9-AC79772A21EB}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:B67"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,15 +1165,21 @@
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1069,7 +1187,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1077,7 +1195,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1085,7 +1203,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1093,7 +1211,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1101,7 +1219,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>87</v>
       </c>
@@ -1109,7 +1227,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>88</v>
       </c>
@@ -1117,7 +1235,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1125,7 +1243,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1142,7 +1260,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1159,7 +1277,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1170,7 +1288,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1178,7 +1296,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1189,7 +1307,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1197,7 +1315,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -2002,38 +2120,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2D64DB-B2A0-4F60-925D-59136FB2C49D}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.140625" style="35"/>
-    <col min="5" max="5" width="9.140625" style="36"/>
-    <col min="6" max="6" width="14.7109375" style="35" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="36"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="36"/>
+    <col min="5" max="5" width="17.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="36"/>
+    <col min="7" max="7" width="14.7109375" style="35" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="36"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B1">
         <v>28</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="34"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>95</v>
       </c>
@@ -2041,7 +2160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>101</v>
       </c>
@@ -2049,31 +2168,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>106</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E4" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>102</v>
       </c>
       <c r="B5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E5" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>100</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E6" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>91</v>
       </c>
@@ -2081,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>94</v>
       </c>
@@ -2089,7 +2256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>103</v>
       </c>
@@ -2097,7 +2264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>104</v>
       </c>
@@ -2105,153 +2272,235 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D12" s="24" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E12" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="36">
+      <c r="F12" s="36">
         <v>2</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="G12" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="36">
+      <c r="H12" s="36">
         <v>12</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12">
+      <c r="I12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12">
         <v>28</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="K12" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="36">
+      <c r="L12" s="36">
         <v>8</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="M12" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D13" s="35" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E13" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="I13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F13" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="M13" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E14" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G15" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="I15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I16" t="s">
+        <v>113</v>
+      </c>
+      <c r="M16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G18" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="I18" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G19" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="K19" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="J13" s="35" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D14" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" t="s">
+    </row>
+    <row r="20" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G20" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="J14" s="35" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F15" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" t="s">
-        <v>121</v>
-      </c>
-      <c r="J15" s="35" t="s">
+    </row>
+    <row r="21" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G22" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F16" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" t="s">
-        <v>123</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" t="s">
-        <v>124</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F19" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="J20" s="35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F21" s="35" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F25" s="35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F26" s="35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F27" s="35" t="s">
+    <row r="23" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G23" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G24" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F28" s="35" t="s">
-        <v>131</v>
+    <row r="28" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2274,39 +2523,39 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/pinout.xlsx
+++ b/pinout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kennedy\Desktop\CropTop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BE28BF-D670-48BF-A7AB-E35B47DBBCF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66D775E-573C-4ABC-A727-BFC4A6C8D3BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="1" xr2:uid="{96B077CE-1DB9-42D8-ABCB-202F61D186A8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{96B077CE-1DB9-42D8-ABCB-202F61D186A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Pin Function Selection" sheetId="1" r:id="rId1"/>
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73935FFD-BF5E-4BF2-ADB9-AC79772A21EB}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2122,7 +2122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2D64DB-B2A0-4F60-925D-59136FB2C49D}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
